--- a/邵经理线上分享问题统计表.xlsx
+++ b/邵经理线上分享问题统计表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\fe-lessons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinhengs/Develop/fe-lessons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E01D25-F22B-4DD8-8BCB-0B01F8BCEA56}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="32600" windowHeight="20540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -438,18 +437,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -506,7 +505,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -778,22 +777,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="39.1796875" customWidth="1"/>
-    <col min="3" max="3" width="30.6328125" customWidth="1"/>
-    <col min="4" max="4" width="36.1796875" customWidth="1"/>
-    <col min="5" max="5" width="21.1796875" customWidth="1"/>
+    <col min="2" max="2" width="39.1640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -802,7 +801,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -819,7 +818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -836,7 +835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -853,7 +852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="67" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -870,7 +869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -887,7 +886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="79" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -904,7 +903,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -921,7 +920,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -938,7 +937,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -955,7 +954,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -972,7 +971,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -989,7 +988,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1006,7 +1005,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1023,7 +1022,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1040,7 +1039,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1057,7 +1056,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1074,7 +1073,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1091,7 +1090,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1108,7 +1107,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1125,7 +1124,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1142,7 +1141,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1159,7 +1158,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1176,7 +1175,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1193,7 +1192,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1210,7 +1209,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1227,7 +1226,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1244,7 +1243,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="71" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="71" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1261,7 +1260,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1278,7 +1277,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1295,7 +1294,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1312,7 +1311,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1329,7 +1328,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1346,7 +1345,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1363,7 +1362,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>

--- a/邵经理线上分享问题统计表.xlsx
+++ b/邵经理线上分享问题统计表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinhengs/Develop/fe-lessons/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\fe-lessons\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D377D80-02BC-4C81-BF3E-93D82B1AF03D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="32600" windowHeight="20540"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -437,19 +438,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -505,7 +506,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -777,22 +778,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.1640625" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="36.1640625" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="39.1796875" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" customWidth="1"/>
+    <col min="4" max="4" width="36.1796875" customWidth="1"/>
+    <col min="5" max="5" width="21.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -801,7 +802,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -818,7 +819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -835,7 +836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -852,7 +853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="67" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -869,7 +870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -886,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="79" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -903,7 +904,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -920,7 +921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -937,7 +938,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -954,7 +955,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -971,7 +972,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -988,7 +989,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1005,7 +1006,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1022,7 +1023,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1039,7 +1040,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1056,7 +1057,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1073,7 +1074,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1090,7 +1091,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1107,7 +1108,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1124,7 +1125,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1141,7 +1142,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1158,7 +1159,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1175,7 +1176,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1192,7 +1193,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1209,7 +1210,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1226,7 +1227,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1243,7 +1244,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="71" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1260,7 +1261,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1277,7 +1278,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1294,7 +1295,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1311,7 +1312,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1328,7 +1329,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1345,7 +1346,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1362,7 +1363,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>

--- a/邵经理线上分享问题统计表.xlsx
+++ b/邵经理线上分享问题统计表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\fe-lessons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D377D80-02BC-4C81-BF3E-93D82B1AF03D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730725C8-EB5B-4E35-8BA8-871375B1AF31}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -781,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>

--- a/邵经理线上分享问题统计表.xlsx
+++ b/邵经理线上分享问题统计表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\fe-lessons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730725C8-EB5B-4E35-8BA8-871375B1AF31}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7150B814-10BB-43EA-90F0-E80C0C8C5F67}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -782,7 +782,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
